--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1334634.089285261</v>
+        <v>1438813.723736333</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814307</v>
+        <v>345.8079317615153</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553985</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -792,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>69.6228731434628</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>86.16708046969029</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>315.9850504895612</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>302.8840439612177</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>121.1566550598657</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>138.368726649454</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>266.3770268865752</v>
       </c>
       <c r="F8" t="n">
-        <v>308.4352735852473</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>51.24477094620661</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.42672630883176</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.26227034390338</v>
+        <v>158.6375170540257</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.33185391213324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>21.31870002049637</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>7.539235117478319</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>112.6316971334672</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>175.8774561121589</v>
+        <v>118.3513465606769</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.31126771336888</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>188.0101428746593</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.94649889937094</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>170.4694561009689</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>65.31126771337246</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>84.81345938384915</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016493</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>169.290253076162</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>43.61939039063888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>170.4694561009721</v>
+        <v>177.5944581379146</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>230.1265962110886</v>
       </c>
       <c r="V40" t="n">
-        <v>127.5727665549192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.46429155314233</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>144.5869604558409</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>80.33192016806973</v>
       </c>
       <c r="U46" t="n">
-        <v>143.3267734872666</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4313,67 +4315,67 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556936</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614558</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>936.573581468608</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695164</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.38058137302</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507435</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275693</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547491</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341958</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>760.7304140873666</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="T4" t="n">
-        <v>760.7304140873666</v>
+        <v>552.3332093826492</v>
       </c>
       <c r="U4" t="n">
-        <v>760.7304140873666</v>
+        <v>552.3332093826492</v>
       </c>
       <c r="V4" t="n">
-        <v>506.0459258814798</v>
+        <v>552.3332093826492</v>
       </c>
       <c r="W4" t="n">
-        <v>216.6287558445192</v>
+        <v>552.3332093826492</v>
       </c>
       <c r="X4" t="n">
-        <v>216.6287558445192</v>
+        <v>552.3332093826492</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445192</v>
+        <v>331.5406302391191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2249.271807195286</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1880.309290254874</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.043591648124</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1136.255339049879</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>725.269434260272</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y5" t="n">
-        <v>2635.871647259408</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.5065461617548</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>798.5065461617548</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>798.5065461617548</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>798.5065461617548</v>
+        <v>781.1206152631805</v>
       </c>
       <c r="V7" t="n">
-        <v>798.5065461617548</v>
+        <v>781.1206152631805</v>
       </c>
       <c r="W7" t="n">
-        <v>798.5065461617548</v>
+        <v>491.70344522622</v>
       </c>
       <c r="X7" t="n">
-        <v>798.5065461617548</v>
+        <v>491.70344522622</v>
       </c>
       <c r="Y7" t="n">
-        <v>798.5065461617548</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245.732315283597</v>
+        <v>1561.90077266991</v>
       </c>
       <c r="C8" t="n">
-        <v>1876.769798343185</v>
+        <v>1561.90077266991</v>
       </c>
       <c r="D8" t="n">
-        <v>1518.504099736435</v>
+        <v>1203.635074063159</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.715847138191</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.5418494269123</v>
+        <v>729.201121645011</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>835.6074842941125</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>835.6074842941125</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>835.6074842941125</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>835.6074842941125</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V10" t="n">
-        <v>835.6074842941125</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W10" t="n">
-        <v>546.190314257152</v>
+        <v>729.201121645011</v>
       </c>
       <c r="X10" t="n">
-        <v>546.190314257152</v>
+        <v>729.201121645011</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.190314257152</v>
+        <v>729.201121645011</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5191,55 +5193,55 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="X13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.67509321183</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.871053104065</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.871053104065</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.871053104065</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1185.871053104065</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.2596629910869</v>
+        <v>748.6973272992223</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>748.6973272992223</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>598.5806878868865</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>598.5806878868865</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5692,31 +5694,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.700706964857</v>
+        <v>1151.138371272992</v>
       </c>
       <c r="X19" t="n">
-        <v>1257.700706964857</v>
+        <v>1151.138371272992</v>
       </c>
       <c r="Y19" t="n">
-        <v>1036.908127821327</v>
+        <v>930.345792129462</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972543</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.67509321183</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3663.147096476859</v>
+        <v>3653.002204579538</v>
       </c>
       <c r="C22" t="n">
-        <v>3494.210913548952</v>
+        <v>3653.002204579538</v>
       </c>
       <c r="D22" t="n">
-        <v>3344.094274136617</v>
+        <v>3653.002204579538</v>
       </c>
       <c r="E22" t="n">
-        <v>3344.094274136617</v>
+        <v>3653.002204579538</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.094274136617</v>
+        <v>3653.002204579538</v>
       </c>
       <c r="G22" t="n">
-        <v>3344.094274136617</v>
+        <v>3485.806105294418</v>
       </c>
       <c r="H22" t="n">
-        <v>3344.094274136617</v>
+        <v>3344.094274136616</v>
       </c>
       <c r="I22" t="n">
-        <v>3344.094274136617</v>
+        <v>3344.094274136616</v>
       </c>
       <c r="J22" t="n">
         <v>3391.030413657444</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421534</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U22" t="n">
-        <v>4293.577691348646</v>
+        <v>4101.784334621086</v>
       </c>
       <c r="V22" t="n">
-        <v>4293.577691348646</v>
+        <v>4101.784334621086</v>
       </c>
       <c r="W22" t="n">
-        <v>4293.577691348646</v>
+        <v>4101.784334621086</v>
       </c>
       <c r="X22" t="n">
-        <v>4065.588140450629</v>
+        <v>3873.794783723068</v>
       </c>
       <c r="Y22" t="n">
-        <v>3844.795561307099</v>
+        <v>3653.002204579538</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,25 +6010,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6072,19 +6074,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.7876405362233</v>
+        <v>410.6659395582719</v>
       </c>
       <c r="C25" t="n">
-        <v>159.7876405362233</v>
+        <v>241.729756630365</v>
       </c>
       <c r="D25" t="n">
-        <v>159.7876405362233</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131284</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629297</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936131</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1018.909846477604</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.027877484366</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377024</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>1440.555541309949</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>1440.555541309949</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1440.555541309949</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T25" t="n">
-        <v>1220.95407633289</v>
+        <v>1067.791471737929</v>
       </c>
       <c r="U25" t="n">
-        <v>931.8788496770881</v>
+        <v>1067.791471737929</v>
       </c>
       <c r="V25" t="n">
-        <v>677.1943614712012</v>
+        <v>813.1069835320418</v>
       </c>
       <c r="W25" t="n">
-        <v>387.7771914342406</v>
+        <v>813.1069835320418</v>
       </c>
       <c r="X25" t="n">
-        <v>159.7876405362233</v>
+        <v>813.1069835320418</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.7876405362233</v>
+        <v>592.3144043885117</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="J28" t="n">
-        <v>140.7528025687996</v>
+        <v>3391.030413657442</v>
       </c>
       <c r="K28" t="n">
-        <v>296.7657364131322</v>
+        <v>3547.043347501775</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629334</v>
+        <v>3776.591987151576</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936169</v>
+        <v>4021.877125582257</v>
       </c>
       <c r="N28" t="n">
-        <v>1018.909846477608</v>
+        <v>4269.187457566248</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.027877484369</v>
+        <v>4477.305488573009</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377027</v>
+        <v>4636.324446465667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1440.555541309953</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>1440.555541309953</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.555541309953</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T28" t="n">
-        <v>1440.555541309953</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.555541309953</v>
+        <v>4116.18548327748</v>
       </c>
       <c r="V28" t="n">
-        <v>1440.555541309953</v>
+        <v>3861.500995071593</v>
       </c>
       <c r="W28" t="n">
-        <v>1151.138371272992</v>
+        <v>3572.083825034632</v>
       </c>
       <c r="X28" t="n">
-        <v>1151.138371272992</v>
+        <v>3344.094274136615</v>
       </c>
       <c r="Y28" t="n">
-        <v>1151.138371272992</v>
+        <v>3344.094274136615</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.7876405362269</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="C31" t="n">
-        <v>159.7876405362269</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>159.7876405362269</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>159.7876405362269</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>159.7876405362269</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>159.7876405362269</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T31" t="n">
-        <v>1220.954076332894</v>
+        <v>1287.839676568568</v>
       </c>
       <c r="U31" t="n">
-        <v>931.8788496770917</v>
+        <v>1287.839676568568</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943614712048</v>
+        <v>1033.155188362681</v>
       </c>
       <c r="W31" t="n">
-        <v>387.7771914342442</v>
+        <v>1033.155188362681</v>
       </c>
       <c r="X31" t="n">
-        <v>159.7876405362269</v>
+        <v>805.1656374646637</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.7876405362269</v>
+        <v>584.3730583211336</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.981709809275</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2877.307316025034</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3474.685803651586</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>4102.283767206192</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.19349744548</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.19349744548</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>3391.030413657439</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>3547.043347501772</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>3776.591987151573</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.877125582257</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>4269.187457566248</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>4477.305488573009</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>4636.324446465667</v>
+        <v>1386.046835377024</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309949</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>1440.555541309949</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305894</v>
+        <v>1257.700706964854</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328836</v>
+        <v>1257.700706964854</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673034</v>
+        <v>1086.700451332367</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467147</v>
+        <v>832.0159631264798</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430186</v>
+        <v>542.5987930895193</v>
       </c>
       <c r="X34" t="n">
-        <v>3344.094274136612</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y34" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6950,13 +6952,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7126,16 +7128,16 @@
         <v>1038.099241987798</v>
       </c>
       <c r="U37" t="n">
-        <v>865.9078721888367</v>
+        <v>858.7109004343494</v>
       </c>
       <c r="V37" t="n">
-        <v>611.2233839829498</v>
+        <v>604.0264122284625</v>
       </c>
       <c r="W37" t="n">
-        <v>321.8062139459892</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="X37" t="n">
-        <v>93.81666304797187</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y37" t="n">
         <v>93.81666304797187</v>
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695907</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.8463960427007</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7362,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.555541309953</v>
+        <v>988.5029690489661</v>
       </c>
       <c r="V40" t="n">
-        <v>1311.694160951449</v>
+        <v>733.8184808430792</v>
       </c>
       <c r="W40" t="n">
-        <v>1022.276990914488</v>
+        <v>444.4013108061185</v>
       </c>
       <c r="X40" t="n">
-        <v>794.2874400164706</v>
+        <v>444.4013108061185</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.4948608729404</v>
+        <v>444.4013108061185</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3492.007367719006</v>
+        <v>357.47811831861</v>
       </c>
       <c r="C43" t="n">
-        <v>3492.007367719006</v>
+        <v>357.47811831861</v>
       </c>
       <c r="D43" t="n">
-        <v>3492.007367719006</v>
+        <v>357.47811831861</v>
       </c>
       <c r="E43" t="n">
-        <v>3344.094274136613</v>
+        <v>357.47811831861</v>
       </c>
       <c r="F43" t="n">
-        <v>3344.094274136613</v>
+        <v>357.47811831861</v>
       </c>
       <c r="G43" t="n">
-        <v>3344.094274136613</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>3344.094274136613</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S43" t="n">
-        <v>4544.785717594714</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T43" t="n">
-        <v>4325.184252617655</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.109025961853</v>
+        <v>901.5797765614575</v>
       </c>
       <c r="V43" t="n">
-        <v>3781.424537755966</v>
+        <v>646.8952883555706</v>
       </c>
       <c r="W43" t="n">
-        <v>3492.007367719006</v>
+        <v>357.47811831861</v>
       </c>
       <c r="X43" t="n">
-        <v>3492.007367719006</v>
+        <v>357.47811831861</v>
       </c>
       <c r="Y43" t="n">
-        <v>3492.007367719006</v>
+        <v>357.47811831861</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7639,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.6659395582719</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="C46" t="n">
-        <v>241.729756630365</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>1440.555541309953</v>
+        <v>1359.412187604832</v>
       </c>
       <c r="U46" t="n">
-        <v>1295.781022635946</v>
+        <v>1359.412187604832</v>
       </c>
       <c r="V46" t="n">
-        <v>1041.096534430059</v>
+        <v>1104.727699398945</v>
       </c>
       <c r="W46" t="n">
-        <v>1041.096534430059</v>
+        <v>815.3105293619843</v>
       </c>
       <c r="X46" t="n">
-        <v>813.1069835320418</v>
+        <v>815.3105293619843</v>
       </c>
       <c r="Y46" t="n">
-        <v>592.3144043885117</v>
+        <v>594.5179502184542</v>
       </c>
     </row>
   </sheetData>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.3223830081914</v>
+        <v>59.9471362980691</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.50012626980406</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23710,16 +23712,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>204.3909553685408</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>159.7075859811495</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>32.78935088946407</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.3070182770852</v>
+        <v>167.8331278285672</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>81.12269493320029</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,25 +24414,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>29.395307452629</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>127.8854812825664</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>115.7150182882753</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.98344513285143</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>132.5919909434391</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>116.8942213130821</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>182.0902649983983</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>115.715018288272</v>
+        <v>108.5900162513296</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,22 +25602,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>56.05787817815559</v>
       </c>
       <c r="V40" t="n">
-        <v>124.5648767689088</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>126.0598467391265</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>36.43932554580371</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,19 +26076,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>137.0735301592185</v>
       </c>
       <c r="U46" t="n">
-        <v>142.8577009019775</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.651046372</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.651046372</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881138.6510463717</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.6510463717</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881138.6510463716</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.6510463717</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881138.6510463718</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26316,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>489521.4728035397</v>
       </c>
       <c r="F2" t="n">
+        <v>489521.4728035397</v>
+      </c>
+      <c r="G2" t="n">
+        <v>489521.4728035398</v>
+      </c>
+      <c r="H2" t="n">
         <v>489521.4728035396</v>
-      </c>
-      <c r="G2" t="n">
-        <v>489521.4728035395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>489521.4728035395</v>
       </c>
       <c r="I2" t="n">
         <v>489521.4728035396</v>
       </c>
       <c r="J2" t="n">
+        <v>489521.4728035396</v>
+      </c>
+      <c r="K2" t="n">
         <v>489521.4728035397</v>
       </c>
-      <c r="K2" t="n">
-        <v>489521.4728035396</v>
-      </c>
       <c r="L2" t="n">
-        <v>489521.4728035397</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="M2" t="n">
         <v>489521.4728035397</v>
       </c>
       <c r="N2" t="n">
+        <v>489521.4728035396</v>
+      </c>
+      <c r="O2" t="n">
         <v>489521.4728035397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>489521.4728035396</v>
       </c>
       <c r="P2" t="n">
         <v>489521.4728035397</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040527</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
+        <v>761.3882086835454</v>
+      </c>
+      <c r="F4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="G4" t="n">
         <v>761.3882086835451</v>
       </c>
-      <c r="F4" t="n">
-        <v>761.388208683545</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>761.3882086835449</v>
       </c>
-      <c r="H4" t="n">
-        <v>761.3882086835448</v>
-      </c>
       <c r="I4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
         <v>761.388208683545</v>
       </c>
       <c r="K4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="M4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
         <v>761.3882086835451</v>
@@ -26479,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
         <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>62225.09296359401</v>
+        <v>62225.09296359334</v>
       </c>
       <c r="F6" t="n">
         <v>387637.5547709491</v>
       </c>
       <c r="G6" t="n">
+        <v>387637.5547709496</v>
+      </c>
+      <c r="H6" t="n">
         <v>387637.5547709489</v>
-      </c>
-      <c r="H6" t="n">
-        <v>387637.5547709488</v>
       </c>
       <c r="I6" t="n">
         <v>387637.5547709489</v>
       </c>
       <c r="J6" t="n">
-        <v>170106.3523736715</v>
+        <v>170106.3523736716</v>
       </c>
       <c r="K6" t="n">
+        <v>387637.554770949</v>
+      </c>
+      <c r="L6" t="n">
         <v>387637.5547709489</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>302582.5268354369</v>
+      </c>
+      <c r="N6" t="n">
+        <v>387637.5547709489</v>
+      </c>
+      <c r="O6" t="n">
+        <v>387637.554770949</v>
+      </c>
+      <c r="P6" t="n">
         <v>387637.5547709491</v>
-      </c>
-      <c r="M6" t="n">
-        <v>302582.5268354372</v>
-      </c>
-      <c r="N6" t="n">
-        <v>387637.5547709491</v>
-      </c>
-      <c r="O6" t="n">
-        <v>387637.5547709489</v>
-      </c>
-      <c r="P6" t="n">
-        <v>387637.554770949</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.256643680326</v>
+        <v>23.92316891695373</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>120.1461521879791</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>133.3818688064789</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>94.93667516389223</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>66.84705671725129</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>68.61237027157615</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>147.8431115561589</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>115.5533431856866</v>
       </c>
       <c r="F8" t="n">
-        <v>98.44077215646416</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>116.0020501524212</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.505426361215569</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28983,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29463,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.476844879432945e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29946,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>164.9290651940682</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667738</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950826</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,13 +32794,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>209.9499448422525</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33029,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722591</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772173</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,13 +33979,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.76383318075232</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649824</v>
@@ -36048,19 +36050,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.76383318075232</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649776</v>
+        <v>157.5888220649777</v>
       </c>
       <c r="L22" t="n">
         <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36516,7 +36518,7 @@
         <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649786</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
         <v>231.867312777577</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36759,7 +36761,7 @@
         <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915965</v>
       </c>
       <c r="N28" t="n">
         <v>249.8084161454456</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028583389</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37244,7 @@
         <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925801</v>
       </c>
       <c r="Q34" t="n">
         <v>55.05929892214689</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1438813.723736333</v>
+        <v>1432886.276209689</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12744834.49889432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358594</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10311469.78615534</v>
+        <v>10677205.42277561</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>266.8472762396358</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>345.8079317615153</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804553985</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363107927</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>86.16708046969029</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>302.8840439612177</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>99.24581285537852</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>138.368726649454</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>93.4583209939527</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3770268865752</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24477094620661</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>32.27552175740297</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.6375170540257</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788178524</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>21.31870002049637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F19" t="n">
-        <v>112.6316971334672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3513465606769</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>188.0101428746593</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327293</v>
       </c>
       <c r="U28" t="n">
-        <v>170.4694561009689</v>
+        <v>147.6895341487317</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>84.81345938384915</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>169.290253076162</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>177.5944581379146</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>81.29683349370501</v>
       </c>
     </row>
     <row r="38">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>230.1265962110886</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.46429155314233</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>80.33192016806973</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520486</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906801</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468608</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080135</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>552.3332093826492</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>552.3332093826492</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>552.3332093826492</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>552.3332093826492</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>552.3332093826492</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.5406302391191</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524208</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>781.1206152631805</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>781.1206152631805</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>491.70344522622</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>491.70344522622</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.70344522622</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.90077266991</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.90077266991</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1203.635074063159</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906801</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645721</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.90077266991</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4895,7 +4895,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>729.201121645011</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,37 +5044,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969314</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5193,58 +5193,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.555541309953</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V13" t="n">
-        <v>1440.555541309953</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.555541309953</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X13" t="n">
-        <v>1440.555541309953</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,16 +5266,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5287,40 +5287,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.555541309953</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1440.555541309953</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.555541309953</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="17">
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>748.6973272992223</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>748.6973272992223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>598.5806878868865</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>598.5806878868865</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.555541309953</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1440.555541309953</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1151.138371272992</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1151.138371272992</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>930.345792129462</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3653.002204579538</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3653.002204579538</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>3653.002204579538</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>3653.002204579538</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>3653.002204579538</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>3485.806105294418</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>3344.094274136616</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>3344.094274136616</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>3391.030413657444</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>3547.043347501772</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3776.591987151573</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>4021.877125582257</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>4269.187457566248</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4477.305488573009</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4636.324446465667</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4101.784334621086</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>4101.784334621086</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>4101.784334621086</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3873.794783723068</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3653.002204579538</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.6659395582719</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>1257.700706964857</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1067.791471737929</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1067.791471737929</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>813.1069835320418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>813.1069835320418</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>813.1069835320418</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.3144043885117</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3344.094274136615</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>3344.094274136615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>3344.094274136615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>3344.094274136615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.094274136615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>3344.094274136615</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>3344.094274136615</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>3344.094274136615</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>3391.030413657442</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>3547.043347501775</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3776.591987151576</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.877125582257</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>4269.187457566248</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4477.305488573009</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4636.324446465667</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>4116.18548327748</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3861.500995071593</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3572.083825034632</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3344.094274136615</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3344.094274136615</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.7245934908939</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>1373.509837562355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>1373.509837562355</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1287.839676568568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1287.839676568568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1033.155188362681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.155188362681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>805.1656374646637</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.3730583211336</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,19 +6718,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.81666304797186</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>1386.046835377024</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>1440.555541309949</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>1440.555541309949</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>1257.700706964854</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1257.700706964854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1086.700451332367</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>832.0159631264798</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>542.5987930895193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>314.6092421915019</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.81666304797186</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,25 +6937,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.81666304797187</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C37" t="n">
-        <v>93.81666304797187</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D37" t="n">
-        <v>93.81666304797187</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>1257.700706964857</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1038.099241987798</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>858.7109004343494</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>604.0264122284625</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>314.6092421915019</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>314.6092421915019</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.81666304797187</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>262.7528459758788</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1220.954076332894</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>988.5029690489661</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>733.8184808430792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>444.4013108061185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>444.4013108061185</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.4013108061185</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>357.47811831861</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>357.47811831861</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>357.47811831861</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>357.47811831861</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>357.47811831861</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>1373.509837562355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>1190.65500321726</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1190.65500321726</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>901.5797765614575</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>646.8952883555706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>357.47811831861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>357.47811831861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>357.47811831861</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.8694853882145</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>243.9333024603076</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>93.81666304797187</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1359.412187604832</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1359.412187604832</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1104.727699398945</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>815.3105293619843</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>815.3105293619843</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.5179502184542</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>148.7507642442417</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.9471362980691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.4693302300338</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3909553685408</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F19" t="n">
-        <v>32.78935088946407</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>167.8331278285672</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>29.395307452629</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>115.7150182882753</v>
+        <v>138.4949402405124</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>132.5919909434391</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>116.8942213130821</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>108.5900162513296</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>56.05787817815559</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>126.0598467391265</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>55.74112246243956</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>137.0735301592185</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881138.651046372</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881138.651046372</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881138.651046372</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881138.6510463717</v>
+        <v>923288.5237765646</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881138.6510463719</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881138.6510463717</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881138.6510463719</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="G2" t="n">
-        <v>489521.4728035398</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>489521.4728035396</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>489521.4728035396</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>489521.4728035396</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>489521.4728035395</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>489521.4728035396</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040527</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835449</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>761.388208683545</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835449</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997309</v>
       </c>
       <c r="D6" t="n">
         <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>62225.09296359334</v>
+        <v>61537.66994874304</v>
       </c>
       <c r="F6" t="n">
-        <v>387637.5547709491</v>
+        <v>386950.1317560975</v>
       </c>
       <c r="G6" t="n">
-        <v>387637.5547709496</v>
+        <v>386950.1317560971</v>
       </c>
       <c r="H6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560975</v>
       </c>
       <c r="I6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="J6" t="n">
-        <v>170106.3523736716</v>
+        <v>169418.9293588203</v>
       </c>
       <c r="K6" t="n">
-        <v>387637.554770949</v>
+        <v>386950.1317560976</v>
       </c>
       <c r="L6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="M6" t="n">
-        <v>302582.5268354369</v>
+        <v>301895.1038205859</v>
       </c>
       <c r="N6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="O6" t="n">
-        <v>387637.554770949</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="P6" t="n">
-        <v>387637.5547709491</v>
+        <v>386950.1317560977</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>115.083093832626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>23.92316891695373</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.415845301584341e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754857</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>133.3818688064789</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>66.84705671725129</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>68.00100824324932</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>147.8431115561589</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>271.8145707770549</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>115.5533431856866</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
-        <v>116.0020501524212</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.476844879432945e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647507</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940682</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34871,13 +34871,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427323</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962379</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023011</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214695</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649777</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915965</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925801</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1432886.276209689</v>
+        <v>1436225.010438372</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>1134222.401358593</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10677205.42277561</v>
+        <v>10311469.78615534</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>266.8472762396358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>27.77348033832339</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189207</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>78.78083674901892</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>75.45713216103701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>99.24581285537852</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>208.1183413816751</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>93.4583209939527</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>208.1826852126399</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>32.27552175740297</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>110.0097398956665</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788178524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>108.3700080132171</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>101.6904320390163</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>101.6904320390163</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>92.26227034390317</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T28" t="n">
-        <v>217.405450327293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487317</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>77.73359659137228</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771336965</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>170.4694561009721</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>170.4694561009721</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.29683349370501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>170.4694561009721</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>170.8079800483189</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>80.33192016806959</v>
       </c>
       <c r="F46" t="n">
-        <v>89.67992556049168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1870.65619074133</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C2" t="n">
-        <v>1501.693673800918</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1501.693673800918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.256030805451</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y2" t="n">
-        <v>2257.256030805451</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>936.573581468608</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695164</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2424.744041450752</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,25 +4661,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.4698357812242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.4698357812242</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565139</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1413.152313590628</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1027.364060992383</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>616.3781562027757</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756264</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969314</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>2414.36154645157</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>2414.36154645157</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>496.2577070217417</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>275.4651278782116</v>
       </c>
     </row>
     <row r="14">
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5284,25 +5284,25 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.45752234853</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876679</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>411.963121559761</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1153.908372585296</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1153.908372585296</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>899.2238843794095</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179076</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629305</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936139</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477605</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484366</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377024</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.55554130995</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.55554130995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>494.0128390933353</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>325.0766561654284</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>174.9600167530927</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>675.661303923575</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>148.7507642442417</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>115.6999154933706</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.4693302300338</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>178.1529903233739</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>115.7150182882719</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>145.6085800303782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>115.7150182882719</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>126.3223830081916</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405124</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>70.88187642684008</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.7150182882749</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.2878198583898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>66.10204247849958</v>
       </c>
       <c r="F46" t="n">
-        <v>55.74112246243956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.651046372</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>923288.5237765646</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463717</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062535</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035397</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405269</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
+        <v>311620.421499731</v>
+      </c>
+      <c r="D6" t="n">
         <v>311620.4214997309</v>
       </c>
-      <c r="D6" t="n">
-        <v>311620.4214997311</v>
-      </c>
       <c r="E6" t="n">
-        <v>61537.66994874304</v>
+        <v>62130.57443014678</v>
       </c>
       <c r="F6" t="n">
-        <v>386950.1317560975</v>
+        <v>387543.0362375028</v>
       </c>
       <c r="G6" t="n">
-        <v>386950.1317560971</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="H6" t="n">
-        <v>386950.1317560975</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="I6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="J6" t="n">
-        <v>169418.9293588203</v>
+        <v>170011.833840225</v>
       </c>
       <c r="K6" t="n">
-        <v>386950.1317560976</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="L6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="M6" t="n">
-        <v>301895.1038205859</v>
+        <v>302488.0083019905</v>
       </c>
       <c r="N6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="O6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="P6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375025</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>115.083093832626</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>321.4674883790896</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754857</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>303.9530049144616</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68.00100824324932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>10.46631197041967</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>271.8145707770549</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>202.7390404408135</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776803</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647507</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558027</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34871,13 +34871,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427323</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113583</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777574</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
